--- a/biology/Botanique/Botany_Letters/Botany_Letters.xlsx
+++ b/biology/Botanique/Botany_Letters/Botany_Letters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Botany Letters est une revue trimestrielle, scientifique et internationale, consacrée à la botanique et publiée par la Société botanique de France[1]. Elle est placée sous la responsabilité d'un comité éditorial. Son rédacteur en chef est Élisabeth Dodinet. Depuis 2012[2] la revue est publiée par l'éditeur anglais Taylor &amp; Francis.
-Tout d'abord publiée uniquement en papier, la numérisation des anciens numéros a été réalisée par Taylor &amp; Francis entre 2012 et 2014[3]. La revue paraît à la fois en édition papier et numérique depuis 2012[3]. Les articles publiés depuis plus de cinq ans sont accessibles gratuitement en ligne sur le site de l'éditeur.
-Le comité éditorial privilégie les approches pluridisciplinaires. La revue publie les actes des colloques et des articles concernant tous les aspects de la botanique. Les doctorants peuvent y présenter le résumé de leur thèse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Botany Letters est une revue trimestrielle, scientifique et internationale, consacrée à la botanique et publiée par la Société botanique de France. Elle est placée sous la responsabilité d'un comité éditorial. Son rédacteur en chef est Élisabeth Dodinet. Depuis 2012 la revue est publiée par l'éditeur anglais Taylor &amp; Francis.
+Tout d'abord publiée uniquement en papier, la numérisation des anciens numéros a été réalisée par Taylor &amp; Francis entre 2012 et 2014. La revue paraît à la fois en édition papier et numérique depuis 2012. Les articles publiés depuis plus de cinq ans sont accessibles gratuitement en ligne sur le site de l'éditeur.
+Le comité éditorial privilégie les approches pluridisciplinaires. La revue publie les actes des colloques et des articles concernant tous les aspects de la botanique. Les doctorants peuvent y présenter le résumé de leur thèse.
 </t>
         </is>
       </c>
@@ -515,16 +527,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Titres de la revue
-1854-1978 : Bulletin de la Société botanique de France
+          <t>Titres de la revue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1854-1978 : Bulletin de la Société botanique de France
 1978-1992 : Bulletin de la Société botanique de France. Actualités botaniques
-1993-2011 : Acta Botanica Gallica[4]
-2012-2015 : Acta Botanica Gallica: Botany Letters[3]
-Depuis 2016 : Botany Letters[2]
-Rédacteurs en chef
-1998-2011 : Bruno de Foucault[3]
-2012-2016 : Élisabeth Dodinet[3]
-2017- : Sophie Nadot[5]
+1993-2011 : Acta Botanica Gallica
+2012-2015 : Acta Botanica Gallica: Botany Letters
+Depuis 2016 : Botany Letters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Botany_Letters</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Botany_Letters</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rédacteurs en chef</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1998-2011 : Bruno de Foucault
+2012-2016 : Élisabeth Dodinet
+2017- : Sophie Nadot
 </t>
         </is>
       </c>
